--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d16a94664976bc4a/Desktop/Learning Disorder Data Collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d16a94664976bc4a/Desktop/nlp/Dsylexia_pilot_study_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C0CD8CE-E128-4AE5-A83A-E35654133C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7C0CD8CE-E128-4AE5-A83A-E35654133C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9225196A-E516-47B2-A6C1-B376A657B2CB}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{758C0C51-F66E-4D40-B21F-4B38B6E288F7}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Asha</t>
+    <t>Vijay</t>
   </si>
   <si>
-    <t>asha@gmail.com</t>
+    <t>vijay@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
